--- a/data/candidates.xlsx
+++ b/data/candidates.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>BOOKING_COUTRY</t>
   </si>
@@ -104,6 +104,9 @@
     <t>India</t>
   </si>
   <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>27 August 2016</t>
   </si>
   <si>
@@ -140,28 +143,58 @@
     <t>June</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Kathmanddu</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Higher education extended course (3 months or more)</t>
+  </si>
+  <si>
+    <t>Austalia</t>
+  </si>
+  <si>
+    <t>Secondary (upto 16 years)</t>
+  </si>
+  <si>
+    <t>9 (or more)</t>
+  </si>
+  <si>
+    <t>Excel1</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Kathmanddu</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Higher education extended course (3 months or more)</t>
-  </si>
-  <si>
-    <t>Austalia</t>
-  </si>
-  <si>
-    <t>Secondary (upto 16 years)</t>
-  </si>
-  <si>
-    <t>9 (or more)</t>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Excel2</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Excel4</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Excel5</t>
+  </si>
+  <si>
+    <t>Test5</t>
   </si>
 </sst>
 </file>
@@ -170,7 +203,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -244,16 +277,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,10 +311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -382,47 +419,47 @@
       <c r="A2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>42377</v>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>14</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>124521</v>
@@ -431,42 +468,390 @@
         <v>21</v>
       </c>
       <c r="R2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="T2" s="0" t="s">
+      <c r="P3" s="0" t="n">
+        <v>12411521</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="S3" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>13511521</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="U4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="J5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>56152521</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="V5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="X5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>48</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>5687421</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" display="ashokpant87@gmail.com"/>
+    <hyperlink ref="K3" r:id="rId2" display="ashokpant87@gmail.com"/>
+    <hyperlink ref="K4" r:id="rId3" display="ashokpant87@gmail.com"/>
+    <hyperlink ref="K5" r:id="rId4" display="ashokpant87@gmail.com"/>
+    <hyperlink ref="K6" r:id="rId5" display="ashokpant87@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/candidates.xlsx
+++ b/data/candidates.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>BOOKING_COUTRY</t>
   </si>
@@ -101,100 +101,112 @@
     <t>ENGLISH_LEARN_YEARS</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>27 August 2016</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Pant</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>ashokpant87@gmail.com</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Kathmanddu</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Higher education extended course (3 months or more)</t>
+  </si>
+  <si>
+    <t>Austalia</t>
+  </si>
+  <si>
+    <t>Secondary (upto 16 years)</t>
+  </si>
+  <si>
+    <t>9 (or more)</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>27 August 2016</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>Academic</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Nepali</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>ashokpant87@gmail.com</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Kathmanddu</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Higher education extended course (3 months or more)</t>
-  </si>
-  <si>
-    <t>Austalia</t>
-  </si>
-  <si>
-    <t>Secondary (upto 16 years)</t>
-  </si>
-  <si>
-    <t>9 (or more)</t>
-  </si>
-  <si>
-    <t>Excel1</t>
-  </si>
-  <si>
-    <t>Test1</t>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>Excel2</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Excel4</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Excel5</t>
-  </si>
-  <si>
-    <t>Test5</t>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Bhatta</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Sila</t>
+  </si>
+  <si>
+    <t>Karki</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Munni</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
@@ -314,7 +326,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -444,22 +456,22 @@
         <v>36</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>14</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>124521</v>
@@ -468,42 +480,42 @@
         <v>21</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>2025</v>
       </c>
       <c r="T2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -512,7 +524,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>32</v>
@@ -521,75 +533,75 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L3" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>12411521</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="0" t="s">
+      <c r="X3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="Y3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Z3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="AA3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AB3" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -598,7 +610,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>32</v>
@@ -607,75 +619,75 @@
         <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L4" s="0" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>13511521</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="T4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="V4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="0" t="s">
+      <c r="X4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AB4" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -684,7 +696,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>32</v>
@@ -693,75 +705,75 @@
         <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L5" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>56152521</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="0" t="s">
+      <c r="X5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="AB5" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -770,7 +782,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>32</v>
@@ -779,70 +791,70 @@
         <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="N6" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>5687421</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="T6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="T6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" s="0" t="s">
+      <c r="X6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="Y6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Z6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="AA6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="0" t="s">
+      <c r="AB6" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/candidates.xlsx
+++ b/data/candidates.xlsx
@@ -101,33 +101,36 @@
     <t>ENGLISH_LEARN_YEARS</t>
   </si>
   <si>
+    <t>Indial</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>27 August 2016</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Pant</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>27 August 2016</t>
-  </si>
-  <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>Academic</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Ashok</t>
-  </si>
-  <si>
-    <t>Pant</t>
-  </si>
-  <si>
-    <t>Nepali</t>
-  </si>
-  <si>
     <t>ashokpant87@gmail.com</t>
   </si>
   <si>
@@ -165,9 +168,6 @@
   </si>
   <si>
     <t>India</t>
-  </si>
-  <si>
-    <t>Delhi</t>
   </si>
   <si>
     <t>Dinesh</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -238,6 +238,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -289,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,6 +304,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +335,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -437,7 +446,7 @@
       <c r="C2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -456,22 +465,22 @@
         <v>36</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>14</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>124521</v>
@@ -480,42 +489,42 @@
         <v>21</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>2025</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -524,7 +533,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>32</v>
@@ -542,10 +551,10 @@
         <v>36</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>11</v>
@@ -557,7 +566,7 @@
         <v>1986</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>12411521</v>
@@ -568,40 +577,40 @@
       <c r="R3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <v>2024</v>
       </c>
       <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -609,7 +618,7 @@
       <c r="C4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -628,10 +637,10 @@
         <v>36</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>24</v>
@@ -643,7 +652,7 @@
         <v>1990</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>13511521</v>
@@ -654,40 +663,40 @@
       <c r="R4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -696,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>32</v>
@@ -714,10 +723,10 @@
         <v>36</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>37</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>8</v>
@@ -729,7 +738,7 @@
         <v>1992</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>56152521</v>
@@ -740,40 +749,40 @@
       <c r="R5" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="T5" s="0" t="s">
         <v>55</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -782,7 +791,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>32</v>
@@ -800,22 +809,22 @@
         <v>36</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>5687421</v>
@@ -826,35 +835,35 @@
       <c r="R6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="4" t="n">
         <v>2026</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/candidates.xlsx
+++ b/data/candidates.xlsx
@@ -10,12 +10,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>BOOKING_COUTRY</t>
   </si>
@@ -101,16 +101,16 @@
     <t>ENGLISH_LEARN_YEARS</t>
   </si>
   <si>
-    <t>Indial</t>
-  </si>
-  <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>27 August 2016</t>
-  </si>
-  <si>
-    <t>Delhi</t>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>15 December 2016</t>
+  </si>
+  <si>
+    <t>Chitwan</t>
   </si>
   <si>
     <t>Academic</t>
@@ -119,94 +119,97 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Ashok</t>
-  </si>
-  <si>
-    <t>Pant</t>
+    <t>Tark Raj</t>
+  </si>
+  <si>
+    <t>Bhatta</t>
   </si>
   <si>
     <t>Nepali</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>ashokpant87@gmail.com</t>
+    <t>narendrajoshi2020@gmail.com</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>JHALARI, 10 JHALARI PIPLADI, KANCHANPUR</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Higher education extended course (3 months or more)</t>
+  </si>
+  <si>
+    <t>Austalia</t>
+  </si>
+  <si>
+    <t>Secondary (upto 16 years)</t>
+  </si>
+  <si>
+    <t>9 (or more)</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>Puri</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>SIVALAYAA, 11 KUSHMA, PARBAT</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Karki</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
   <si>
     <t>December</t>
   </si>
   <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Kathmanddu</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Higher education extended course (3 months or more)</t>
-  </si>
-  <si>
-    <t>Austalia</t>
-  </si>
-  <si>
-    <t>Secondary (upto 16 years)</t>
-  </si>
-  <si>
-    <t>9 (or more)</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Dinesh</t>
-  </si>
-  <si>
-    <t>Joshi</t>
-  </si>
-  <si>
-    <t>November</t>
+    <t>DANDAGAUN, 03 GHYANGSUKATHOKAR, DOLAKHA</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Tamang</t>
   </si>
   <si>
     <t>July</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
-    <t>Bhatta</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Sila</t>
-  </si>
-  <si>
-    <t>Karki</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>Munni</t>
-  </si>
-  <si>
-    <t>March</t>
+    <t>KABILAS, 07 KABILAS, NUWAKOT</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -240,16 +243,23 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +279,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,8 +303,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,27 +316,96 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -332,22 +414,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="18" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.3673469387755"/>
+    <col collapsed="false" hidden="false" max="18" min="12" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,14 +520,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -455,7 +539,7 @@
       <c r="F2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -465,169 +549,169 @@
         <v>36</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="3" t="n">
+        <v>9555150</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>124521</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="n">
+        <v>2026</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>2025</v>
-      </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L3" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>8114145</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>1986</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>12411521</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="T3" s="0" t="s">
+      <c r="U3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="0" t="s">
+      <c r="X3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="Y3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Z3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="AA3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AB3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -637,74 +721,74 @@
         <v>36</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L4" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>13511521</v>
+        <v>39</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>9360387</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>2023</v>
+        <v>59</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>2025</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="0" t="s">
+      <c r="X4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AB4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -713,166 +797,216 @@
       <c r="F5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>59</v>
+      <c r="G5" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L5" s="0" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>56152521</v>
+        <v>39</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>9034595</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>2020</v>
+        <v>63</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>2025</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="0" t="s">
+      <c r="X5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="AB5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>5687421</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>2026</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="ashokpant87@gmail.com"/>
-    <hyperlink ref="K3" r:id="rId2" display="ashokpant87@gmail.com"/>
-    <hyperlink ref="K4" r:id="rId3" display="ashokpant87@gmail.com"/>
-    <hyperlink ref="K5" r:id="rId4" display="ashokpant87@gmail.com"/>
-    <hyperlink ref="K6" r:id="rId5" display="ashokpant87@gmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="narendrajoshi2020@gmail.com"/>
+    <hyperlink ref="K3" r:id="rId2" display="narendrajoshi2020@gmail.com"/>
+    <hyperlink ref="K4" r:id="rId3" display="narendrajoshi2020@gmail.com"/>
+    <hyperlink ref="K5" r:id="rId4" display="narendrajoshi2020@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/candidates.xlsx
+++ b/data/candidates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="150" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>BOOKING_COUTRY</t>
   </si>
@@ -104,46 +104,49 @@
     <t>Nepal</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t>15 December 2016</t>
-  </si>
-  <si>
-    <t>Chitwan</t>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>20 August 2016</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
   </si>
   <si>
     <t>Academic</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Tark Raj</t>
-  </si>
-  <si>
-    <t>Bhatta</t>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>Puri</t>
   </si>
   <si>
     <t>Nepali</t>
   </si>
   <si>
-    <t>narendrajoshi2020@gmail.com</t>
-  </si>
-  <si>
-    <t>May</t>
+    <t>ashokpant87@gmail.com</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
   <si>
     <t>Passport</t>
   </si>
   <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>JHALARI, 10 JHALARI PIPLADI, KANCHANPUR</t>
+    <t>08114145</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>SIVALAYAA, 11 KUSHMA, PARBAT</t>
   </si>
   <si>
     <t>Education</t>
@@ -164,27 +167,6 @@
     <t>9 (or more)</t>
   </si>
   <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Smriti</t>
-  </si>
-  <si>
-    <t>Puri</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>SIVALAYAA, 11 KUSHMA, PARBAT</t>
-  </si>
-  <si>
     <t>Riya</t>
   </si>
   <si>
@@ -194,22 +176,13 @@
     <t>April</t>
   </si>
   <si>
+    <t>09360387</t>
+  </si>
+  <si>
     <t>December</t>
   </si>
   <si>
     <t>DANDAGAUN, 03 GHYANGSUKATHOKAR, DOLAKHA</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>Tamang</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>KABILAS, 07 KABILAS, NUWAKOT</t>
   </si>
 </sst>
 </file>
@@ -220,7 +193,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -261,6 +234,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,11 +287,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,12 +312,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -414,13 +406,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB65536"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4387755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1071428571429"/>
@@ -429,7 +421,9 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7704081632653"/>
     <col collapsed="false" hidden="false" max="10" min="6" style="0" width="11.5561224489796"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.3673469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="12" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="11.5561224489796"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.5561224489796"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5561224489796"/>
   </cols>
@@ -480,7 +474,7 @@
       <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="0" t="s">
@@ -524,13 +518,13 @@
       <c r="A2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -539,7 +533,7 @@
       <c r="F2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -551,81 +545,81 @@
       <c r="J2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>38</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>1985</v>
+        <v>1996</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="3" t="n">
-        <v>9555150</v>
+      <c r="P2" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="V2" s="0" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -637,11 +631,11 @@
       <c r="J3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>52</v>
@@ -652,361 +646,49 @@
       <c r="O3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="3" t="n">
-        <v>8114145</v>
+      <c r="P3" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="V3" s="0" t="s">
         <v>28</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>9360387</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>2025</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>9034595</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>2025</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="narendrajoshi2020@gmail.com"/>
-    <hyperlink ref="K3" r:id="rId2" display="narendrajoshi2020@gmail.com"/>
-    <hyperlink ref="K4" r:id="rId3" display="narendrajoshi2020@gmail.com"/>
-    <hyperlink ref="K5" r:id="rId4" display="narendrajoshi2020@gmail.com"/>
+    <hyperlink ref="K3" r:id="rId1" display="ashokpant87@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/candidates.xlsx
+++ b/data/candidates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="136">
   <si>
     <t xml:space="preserve">BOOKING_COUTRY</t>
   </si>
@@ -109,70 +109,82 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathmandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSHILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPKOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashokpant87@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09435299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIKABHAIRAB-16 , LALITPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher education extended course (3 months or more)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary (upto 16 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (or more)</t>
+  </si>
+  <si>
     <t xml:space="preserve">September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">15 September 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kathmandu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUSHILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPKOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashokpant87@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passport</t>
+    <t xml:space="preserve">03 September 2016</t>
   </si>
   <si>
     <t xml:space="preserve">09805299</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TIKABHAIRAB-16 , LALITPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higher education extended course (3 months or more)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary (upto 16 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (or more)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03 September 2016</t>
+    <t xml:space="preserve">December 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 December 2017</t>
   </si>
   <si>
     <t xml:space="preserve">Mr</t>
@@ -187,7 +199,7 @@
     <t xml:space="preserve">May</t>
   </si>
   <si>
-    <t xml:space="preserve">07178035</t>
+    <t xml:space="preserve">07328035</t>
   </si>
   <si>
     <t xml:space="preserve">March</t>
@@ -199,6 +211,12 @@
     <t xml:space="preserve">RAKATHUM-04 , RAKATHUM , RAMECHHAP</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">INDIRA</t>
   </si>
   <si>
@@ -217,6 +235,12 @@
     <t xml:space="preserve">TIMALGAIRA-07 , GOTHPANI , KAVREPALANCHOK</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAHESH   BAHADUR</t>
   </si>
   <si>
@@ -226,12 +250,18 @@
     <t xml:space="preserve">September</t>
   </si>
   <si>
-    <t xml:space="preserve">09933366</t>
+    <t xml:space="preserve">09931366</t>
   </si>
   <si>
     <t xml:space="preserve">JHALARI-10 , JHALARI PIPLADI , KANCHANPUR</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAURAB</t>
   </si>
   <si>
@@ -241,7 +271,7 @@
     <t xml:space="preserve">January</t>
   </si>
   <si>
-    <t xml:space="preserve">09916012</t>
+    <t xml:space="preserve">09935012</t>
   </si>
   <si>
     <t xml:space="preserve">July</t>
@@ -250,42 +280,66 @@
     <t xml:space="preserve">MAHENDRATOLE, 05 INARUWA, SUNSARI</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANISHA</t>
   </si>
   <si>
     <t xml:space="preserve">DHITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">09090183</t>
+    <t xml:space="preserve">09080183</t>
   </si>
   <si>
     <t xml:space="preserve">EKTA TOLE, 06 TULSIPUR, DANG</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">SABINA</t>
   </si>
   <si>
     <t xml:space="preserve">KUNWOR</t>
   </si>
   <si>
-    <t xml:space="preserve">09275031</t>
+    <t xml:space="preserve">09775031</t>
   </si>
   <si>
     <t xml:space="preserve">BANSGHARI-02 , PANAUTI , KAVREPALANCHOK</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve"> LOK  BAHADUR</t>
   </si>
   <si>
     <t xml:space="preserve">BUDHATHOKI</t>
   </si>
   <si>
-    <t xml:space="preserve">08767587</t>
+    <t xml:space="preserve">08762787</t>
   </si>
   <si>
     <t xml:space="preserve">AMARDAHA-02 , AMARDHA , MORANG</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAHESH   PRASAD</t>
   </si>
   <si>
@@ -295,28 +349,40 @@
     <t xml:space="preserve">December</t>
   </si>
   <si>
-    <t xml:space="preserve">09316350</t>
+    <t xml:space="preserve">09393350</t>
   </si>
   <si>
     <t xml:space="preserve">GOBARAIYA-18 , MAHENDRANAGAR , KANCHANPUR</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUBARNA</t>
   </si>
   <si>
-    <t xml:space="preserve">09486165</t>
+    <t xml:space="preserve">09486215</t>
   </si>
   <si>
     <t xml:space="preserve">TOKHA-05 , TOKHA , KATHMANDU</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">SANTOSH</t>
   </si>
   <si>
     <t xml:space="preserve">PARIYAR</t>
   </si>
   <si>
-    <t xml:space="preserve">09576787</t>
+    <t xml:space="preserve">09716787</t>
   </si>
   <si>
     <t xml:space="preserve">February</t>
@@ -325,6 +391,12 @@
     <t xml:space="preserve">APCHAUR-09 , DHAWA , GORKHA</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRATIKSHYA</t>
   </si>
   <si>
@@ -334,19 +406,25 @@
     <t xml:space="preserve">April</t>
   </si>
   <si>
-    <t xml:space="preserve">08655256</t>
+    <t xml:space="preserve">08365256</t>
   </si>
   <si>
     <t xml:space="preserve">BELDANDA-05 , RATNAPUR , SYANGJA</t>
   </si>
   <si>
+    <t xml:space="preserve">December 2029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 December 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">SARASWOTI</t>
   </si>
   <si>
     <t xml:space="preserve">KISAN</t>
   </si>
   <si>
-    <t xml:space="preserve">08918948</t>
+    <t xml:space="preserve">08918974</t>
   </si>
   <si>
     <t xml:space="preserve">BHALTAKURA-05 , BAGLUNG , BAGLUNG</t>
@@ -360,7 +438,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -381,6 +459,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -444,16 +527,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,23 +552,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,23 +653,26 @@
   <dimension ref="1:14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="T8" activeCellId="0" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.780612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,10 +768,10 @@
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -690,10 +780,10 @@
       <c r="F2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -702,7 +792,7 @@
       <c r="J2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="0" t="n">
@@ -717,7 +807,7 @@
       <c r="O2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q2" s="0" t="n">
@@ -732,7 +822,7 @@
       <c r="T2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V2" s="0" t="s">
@@ -759,13 +849,13 @@
       <c r="AC2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG2" s="0" t="s">
@@ -774,10 +864,10 @@
       <c r="AH2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AK2" s="0" t="s">
@@ -786,7 +876,7 @@
       <c r="AL2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AN2" s="0" t="n">
@@ -801,8 +891,8 @@
       <c r="AQ2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" s="6" t="s">
-        <v>40</v>
+      <c r="AR2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AS2" s="0" t="n">
         <v>1</v>
@@ -816,7 +906,7 @@
       <c r="AV2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AW2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AX2" s="0" t="s">
@@ -843,13 +933,13 @@
       <c r="BE2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="BF2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="BI2" s="0" t="s">
@@ -858,10 +948,10 @@
       <c r="BJ2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BK2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BL2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BM2" s="0" t="s">
@@ -870,7 +960,7 @@
       <c r="BN2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="BO2" s="5" t="s">
+      <c r="BO2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="BP2" s="0" t="n">
@@ -885,8 +975,8 @@
       <c r="BS2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="BT2" s="6" t="s">
-        <v>40</v>
+      <c r="BT2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="BU2" s="0" t="n">
         <v>1</v>
@@ -900,7 +990,7 @@
       <c r="BX2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="BY2" s="7" t="s">
+      <c r="BY2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="BZ2" s="0" t="s">
@@ -927,13 +1017,13 @@
       <c r="CG2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="CH2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CH2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="CK2" s="0" t="s">
@@ -942,10 +1032,10 @@
       <c r="CL2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="CM2" s="4" t="s">
+      <c r="CM2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="CN2" s="4" t="s">
+      <c r="CN2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="CO2" s="0" t="s">
@@ -954,7 +1044,7 @@
       <c r="CP2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="CQ2" s="5" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="CR2" s="0" t="n">
@@ -969,8 +1059,8 @@
       <c r="CU2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="CV2" s="6" t="s">
-        <v>40</v>
+      <c r="CV2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="CW2" s="0" t="n">
         <v>1</v>
@@ -984,7 +1074,7 @@
       <c r="CZ2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="DA2" s="7" t="s">
+      <c r="DA2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="DB2" s="0" t="s">
@@ -1011,13 +1101,13 @@
       <c r="DI2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="DJ2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="DK2" s="2" t="s">
+      <c r="DJ2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DK2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="DL2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="DM2" s="0" t="s">
@@ -1026,10 +1116,10 @@
       <c r="DN2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="DO2" s="4" t="s">
+      <c r="DO2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="DP2" s="4" t="s">
+      <c r="DP2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="DQ2" s="0" t="s">
@@ -1038,7 +1128,7 @@
       <c r="DR2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="DS2" s="5" t="s">
+      <c r="DS2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="DT2" s="0" t="n">
@@ -1053,8 +1143,8 @@
       <c r="DW2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="DX2" s="6" t="s">
-        <v>40</v>
+      <c r="DX2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="DY2" s="0" t="n">
         <v>1</v>
@@ -1068,7 +1158,7 @@
       <c r="EB2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="EC2" s="7" t="s">
+      <c r="EC2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="ED2" s="0" t="s">
@@ -1095,13 +1185,13 @@
       <c r="EK2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="EL2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="EM2" s="2" t="s">
+      <c r="EL2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="EN2" s="3" t="s">
+      <c r="EM2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="EN2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="EO2" s="0" t="s">
@@ -1110,10 +1200,10 @@
       <c r="EP2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="EQ2" s="4" t="s">
+      <c r="EQ2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="ER2" s="4" t="s">
+      <c r="ER2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="ES2" s="0" t="s">
@@ -1122,7 +1212,7 @@
       <c r="ET2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="EU2" s="5" t="s">
+      <c r="EU2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="EV2" s="0" t="n">
@@ -1137,8 +1227,8 @@
       <c r="EY2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="EZ2" s="6" t="s">
-        <v>40</v>
+      <c r="EZ2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="FA2" s="0" t="n">
         <v>1</v>
@@ -1152,7 +1242,7 @@
       <c r="FD2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="FE2" s="7" t="s">
+      <c r="FE2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="FF2" s="0" t="s">
@@ -1179,13 +1269,13 @@
       <c r="FM2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="FN2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="FO2" s="2" t="s">
+      <c r="FN2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="FP2" s="3" t="s">
+      <c r="FO2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="FP2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="FQ2" s="0" t="s">
@@ -1194,10 +1284,10 @@
       <c r="FR2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="FS2" s="4" t="s">
+      <c r="FS2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="FT2" s="4" t="s">
+      <c r="FT2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="FU2" s="0" t="s">
@@ -1206,7 +1296,7 @@
       <c r="FV2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="FW2" s="5" t="s">
+      <c r="FW2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="FX2" s="0" t="n">
@@ -1221,8 +1311,8 @@
       <c r="GA2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="GB2" s="6" t="s">
-        <v>40</v>
+      <c r="GB2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="GC2" s="0" t="n">
         <v>1</v>
@@ -1236,7 +1326,7 @@
       <c r="GF2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="GG2" s="7" t="s">
+      <c r="GG2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="GH2" s="0" t="s">
@@ -1263,13 +1353,13 @@
       <c r="GO2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="GP2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="GQ2" s="2" t="s">
+      <c r="GP2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="GR2" s="3" t="s">
+      <c r="GQ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="GR2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="GS2" s="0" t="s">
@@ -1278,10 +1368,10 @@
       <c r="GT2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="GU2" s="4" t="s">
+      <c r="GU2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="GV2" s="4" t="s">
+      <c r="GV2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="GW2" s="0" t="s">
@@ -1290,7 +1380,7 @@
       <c r="GX2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="GY2" s="5" t="s">
+      <c r="GY2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="GZ2" s="0" t="n">
@@ -1305,8 +1395,8 @@
       <c r="HC2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="HD2" s="6" t="s">
-        <v>40</v>
+      <c r="HD2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="HE2" s="0" t="n">
         <v>1</v>
@@ -1320,7 +1410,7 @@
       <c r="HH2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="HI2" s="7" t="s">
+      <c r="HI2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="HJ2" s="0" t="s">
@@ -1347,13 +1437,13 @@
       <c r="HQ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="HR2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="HS2" s="2" t="s">
+      <c r="HR2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="HT2" s="3" t="s">
+      <c r="HS2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="HT2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="HU2" s="0" t="s">
@@ -1362,10 +1452,10 @@
       <c r="HV2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="HW2" s="4" t="s">
+      <c r="HW2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="HX2" s="4" t="s">
+      <c r="HX2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="HY2" s="0" t="s">
@@ -1374,7 +1464,7 @@
       <c r="HZ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="IA2" s="5" t="s">
+      <c r="IA2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="IB2" s="0" t="n">
@@ -1389,8 +1479,8 @@
       <c r="IE2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="IF2" s="6" t="s">
-        <v>40</v>
+      <c r="IF2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="IG2" s="0" t="n">
         <v>1</v>
@@ -1404,7 +1494,7 @@
       <c r="IJ2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="IK2" s="7" t="s">
+      <c r="IK2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="IL2" s="0" t="s">
@@ -1431,13 +1521,13 @@
       <c r="IS2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="IT2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="IU2" s="2" t="s">
+      <c r="IT2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="IV2" s="3" t="s">
+      <c r="IU2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="IV2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="IW2" s="0" t="s">
@@ -1446,10 +1536,10 @@
       <c r="IX2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="IY2" s="4" t="s">
+      <c r="IY2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="IZ2" s="4" t="s">
+      <c r="IZ2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="JA2" s="0" t="s">
@@ -1458,7 +1548,7 @@
       <c r="JB2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="JC2" s="5" t="s">
+      <c r="JC2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="JD2" s="0" t="n">
@@ -1473,8 +1563,8 @@
       <c r="JG2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="JH2" s="6" t="s">
-        <v>40</v>
+      <c r="JH2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="JI2" s="0" t="n">
         <v>1</v>
@@ -1488,7 +1578,7 @@
       <c r="JL2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="JM2" s="7" t="s">
+      <c r="JM2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="JN2" s="0" t="s">
@@ -1515,13 +1605,13 @@
       <c r="JU2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="JV2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="JW2" s="2" t="s">
+      <c r="JV2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="JX2" s="3" t="s">
+      <c r="JW2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="JX2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="JY2" s="0" t="s">
@@ -1530,10 +1620,10 @@
       <c r="JZ2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="KA2" s="4" t="s">
+      <c r="KA2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="KB2" s="4" t="s">
+      <c r="KB2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="KC2" s="0" t="s">
@@ -1542,7 +1632,7 @@
       <c r="KD2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" s="5" t="s">
+      <c r="KE2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="KF2" s="0" t="n">
@@ -1557,8 +1647,8 @@
       <c r="KI2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="KJ2" s="6" t="s">
-        <v>40</v>
+      <c r="KJ2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="KK2" s="0" t="n">
         <v>1</v>
@@ -1572,7 +1662,7 @@
       <c r="KN2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="KO2" s="7" t="s">
+      <c r="KO2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="KP2" s="0" t="s">
@@ -1599,13 +1689,13 @@
       <c r="KW2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="KX2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="KY2" s="2" t="s">
+      <c r="KX2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="KZ2" s="3" t="s">
+      <c r="KY2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="KZ2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="LA2" s="0" t="s">
@@ -1614,10 +1704,10 @@
       <c r="LB2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="LC2" s="4" t="s">
+      <c r="LC2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="LD2" s="4" t="s">
+      <c r="LD2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="LE2" s="0" t="s">
@@ -1626,7 +1716,7 @@
       <c r="LF2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="LG2" s="5" t="s">
+      <c r="LG2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="LH2" s="0" t="n">
@@ -1641,8 +1731,8 @@
       <c r="LK2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="LL2" s="6" t="s">
-        <v>40</v>
+      <c r="LL2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="LM2" s="0" t="n">
         <v>1</v>
@@ -1656,7 +1746,7 @@
       <c r="LP2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="LQ2" s="7" t="s">
+      <c r="LQ2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="LR2" s="0" t="s">
@@ -1683,13 +1773,13 @@
       <c r="LY2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="LZ2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="MA2" s="2" t="s">
+      <c r="LZ2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="MB2" s="3" t="s">
+      <c r="MA2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="MC2" s="0" t="s">
@@ -1698,10 +1788,10 @@
       <c r="MD2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="ME2" s="4" t="s">
+      <c r="ME2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="MF2" s="4" t="s">
+      <c r="MF2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="MG2" s="0" t="s">
@@ -1710,7 +1800,7 @@
       <c r="MH2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="MI2" s="5" t="s">
+      <c r="MI2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="MJ2" s="0" t="n">
@@ -1725,8 +1815,8 @@
       <c r="MM2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="MN2" s="6" t="s">
-        <v>40</v>
+      <c r="MN2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="MO2" s="0" t="n">
         <v>1</v>
@@ -1740,7 +1830,7 @@
       <c r="MR2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="MS2" s="7" t="s">
+      <c r="MS2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="MT2" s="0" t="s">
@@ -1767,13 +1857,13 @@
       <c r="NA2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="NB2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="NC2" s="2" t="s">
+      <c r="NB2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="ND2" s="3" t="s">
+      <c r="NC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="ND2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="NE2" s="0" t="s">
@@ -1782,10 +1872,10 @@
       <c r="NF2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="NG2" s="4" t="s">
+      <c r="NG2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="NH2" s="4" t="s">
+      <c r="NH2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="NI2" s="0" t="s">
@@ -1794,7 +1884,7 @@
       <c r="NJ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="NK2" s="5" t="s">
+      <c r="NK2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="NL2" s="0" t="n">
@@ -1809,8 +1899,8 @@
       <c r="NO2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="NP2" s="6" t="s">
-        <v>40</v>
+      <c r="NP2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="NQ2" s="0" t="n">
         <v>1</v>
@@ -1824,7 +1914,7 @@
       <c r="NT2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="NU2" s="7" t="s">
+      <c r="NU2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="NV2" s="0" t="s">
@@ -1851,13 +1941,13 @@
       <c r="OC2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="OD2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="OE2" s="2" t="s">
+      <c r="OD2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="OF2" s="3" t="s">
+      <c r="OE2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="OF2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="OG2" s="0" t="s">
@@ -1866,10 +1956,10 @@
       <c r="OH2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="OI2" s="4" t="s">
+      <c r="OI2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="OJ2" s="4" t="s">
+      <c r="OJ2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="OK2" s="0" t="s">
@@ -1878,7 +1968,7 @@
       <c r="OL2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="OM2" s="5" t="s">
+      <c r="OM2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="ON2" s="0" t="n">
@@ -1893,8 +1983,8 @@
       <c r="OQ2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="OR2" s="6" t="s">
-        <v>40</v>
+      <c r="OR2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="OS2" s="0" t="n">
         <v>1</v>
@@ -1908,7 +1998,7 @@
       <c r="OV2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="OW2" s="7" t="s">
+      <c r="OW2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="OX2" s="0" t="s">
@@ -1935,13 +2025,13 @@
       <c r="PE2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="PF2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="PG2" s="2" t="s">
+      <c r="PF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="PH2" s="3" t="s">
+      <c r="PG2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="PH2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="PI2" s="0" t="s">
@@ -1950,10 +2040,10 @@
       <c r="PJ2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="PK2" s="4" t="s">
+      <c r="PK2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="PL2" s="4" t="s">
+      <c r="PL2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="PM2" s="0" t="s">
@@ -1962,7 +2052,7 @@
       <c r="PN2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="PO2" s="5" t="s">
+      <c r="PO2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="PP2" s="0" t="n">
@@ -1977,8 +2067,8 @@
       <c r="PS2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="PT2" s="6" t="s">
-        <v>40</v>
+      <c r="PT2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="PU2" s="0" t="n">
         <v>1</v>
@@ -1992,7 +2082,7 @@
       <c r="PX2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="PY2" s="7" t="s">
+      <c r="PY2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="PZ2" s="0" t="s">
@@ -2019,13 +2109,13 @@
       <c r="QG2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="QH2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="QI2" s="2" t="s">
+      <c r="QH2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="QJ2" s="3" t="s">
+      <c r="QI2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="QJ2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="QK2" s="0" t="s">
@@ -2034,10 +2124,10 @@
       <c r="QL2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="QM2" s="4" t="s">
+      <c r="QM2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="QN2" s="4" t="s">
+      <c r="QN2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="QO2" s="0" t="s">
@@ -2046,7 +2136,7 @@
       <c r="QP2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="QQ2" s="5" t="s">
+      <c r="QQ2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="QR2" s="0" t="n">
@@ -2061,8 +2151,8 @@
       <c r="QU2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="QV2" s="6" t="s">
-        <v>40</v>
+      <c r="QV2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="QW2" s="0" t="n">
         <v>1</v>
@@ -2076,7 +2166,7 @@
       <c r="QZ2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="RA2" s="7" t="s">
+      <c r="RA2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="RB2" s="0" t="s">
@@ -2103,13 +2193,13 @@
       <c r="RI2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="RJ2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="RK2" s="2" t="s">
+      <c r="RJ2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="RL2" s="3" t="s">
+      <c r="RK2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="RL2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="RM2" s="0" t="s">
@@ -2118,10 +2208,10 @@
       <c r="RN2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="RO2" s="4" t="s">
+      <c r="RO2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="RP2" s="4" t="s">
+      <c r="RP2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="RQ2" s="0" t="s">
@@ -2130,7 +2220,7 @@
       <c r="RR2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="RS2" s="5" t="s">
+      <c r="RS2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="RT2" s="0" t="n">
@@ -2145,8 +2235,8 @@
       <c r="RW2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="RX2" s="6" t="s">
-        <v>40</v>
+      <c r="RX2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="RY2" s="0" t="n">
         <v>1</v>
@@ -2160,7 +2250,7 @@
       <c r="SB2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="SC2" s="7" t="s">
+      <c r="SC2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="SD2" s="0" t="s">
@@ -2187,13 +2277,13 @@
       <c r="SK2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="SL2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="SM2" s="2" t="s">
+      <c r="SL2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="SN2" s="3" t="s">
+      <c r="SM2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="SN2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="SO2" s="0" t="s">
@@ -2202,10 +2292,10 @@
       <c r="SP2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="SQ2" s="4" t="s">
+      <c r="SQ2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="SR2" s="4" t="s">
+      <c r="SR2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="SS2" s="0" t="s">
@@ -2214,7 +2304,7 @@
       <c r="ST2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="SU2" s="5" t="s">
+      <c r="SU2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="SV2" s="0" t="n">
@@ -2229,8 +2319,8 @@
       <c r="SY2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="SZ2" s="6" t="s">
-        <v>40</v>
+      <c r="SZ2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="TA2" s="0" t="n">
         <v>1</v>
@@ -2244,7 +2334,7 @@
       <c r="TD2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="TE2" s="7" t="s">
+      <c r="TE2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="TF2" s="0" t="s">
@@ -2271,13 +2361,13 @@
       <c r="TM2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="TN2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="TO2" s="2" t="s">
+      <c r="TN2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="TP2" s="3" t="s">
+      <c r="TO2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="TP2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="TQ2" s="0" t="s">
@@ -2286,10 +2376,10 @@
       <c r="TR2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="TS2" s="4" t="s">
+      <c r="TS2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="TT2" s="4" t="s">
+      <c r="TT2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="TU2" s="0" t="s">
@@ -2298,7 +2388,7 @@
       <c r="TV2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="TW2" s="5" t="s">
+      <c r="TW2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="TX2" s="0" t="n">
@@ -2313,8 +2403,8 @@
       <c r="UA2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="UB2" s="6" t="s">
-        <v>40</v>
+      <c r="UB2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="UC2" s="0" t="n">
         <v>1</v>
@@ -2328,7 +2418,7 @@
       <c r="UF2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="UG2" s="7" t="s">
+      <c r="UG2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="UH2" s="0" t="s">
@@ -2355,13 +2445,13 @@
       <c r="UO2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="UP2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="UQ2" s="2" t="s">
+      <c r="UP2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="UR2" s="3" t="s">
+      <c r="UQ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="UR2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="US2" s="0" t="s">
@@ -2370,10 +2460,10 @@
       <c r="UT2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="UU2" s="4" t="s">
+      <c r="UU2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="UV2" s="4" t="s">
+      <c r="UV2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="UW2" s="0" t="s">
@@ -2382,7 +2472,7 @@
       <c r="UX2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="UY2" s="5" t="s">
+      <c r="UY2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="UZ2" s="0" t="n">
@@ -2397,8 +2487,8 @@
       <c r="VC2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="VD2" s="6" t="s">
-        <v>40</v>
+      <c r="VD2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="VE2" s="0" t="n">
         <v>1</v>
@@ -2412,7 +2502,7 @@
       <c r="VH2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="VI2" s="7" t="s">
+      <c r="VI2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="VJ2" s="0" t="s">
@@ -2439,13 +2529,13 @@
       <c r="VQ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="VR2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="VS2" s="2" t="s">
+      <c r="VR2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="VT2" s="3" t="s">
+      <c r="VS2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="VT2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="VU2" s="0" t="s">
@@ -2454,10 +2544,10 @@
       <c r="VV2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="VW2" s="4" t="s">
+      <c r="VW2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="VX2" s="4" t="s">
+      <c r="VX2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="VY2" s="0" t="s">
@@ -2466,7 +2556,7 @@
       <c r="VZ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="WA2" s="5" t="s">
+      <c r="WA2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="WB2" s="0" t="n">
@@ -2481,8 +2571,8 @@
       <c r="WE2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="WF2" s="6" t="s">
-        <v>40</v>
+      <c r="WF2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="WG2" s="0" t="n">
         <v>1</v>
@@ -2496,7 +2586,7 @@
       <c r="WJ2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="WK2" s="7" t="s">
+      <c r="WK2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="WL2" s="0" t="s">
@@ -2523,13 +2613,13 @@
       <c r="WS2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="WT2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="WU2" s="2" t="s">
+      <c r="WT2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="WV2" s="3" t="s">
+      <c r="WU2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="WV2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="WW2" s="0" t="s">
@@ -2538,10 +2628,10 @@
       <c r="WX2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="WY2" s="4" t="s">
+      <c r="WY2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="WZ2" s="4" t="s">
+      <c r="WZ2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="XA2" s="0" t="s">
@@ -2550,7 +2640,7 @@
       <c r="XB2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="XC2" s="5" t="s">
+      <c r="XC2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="XD2" s="0" t="n">
@@ -2565,8 +2655,8 @@
       <c r="XG2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="XH2" s="6" t="s">
-        <v>40</v>
+      <c r="XH2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="XI2" s="0" t="n">
         <v>1</v>
@@ -2580,7 +2670,7 @@
       <c r="XL2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="XM2" s="7" t="s">
+      <c r="XM2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="XN2" s="0" t="s">
@@ -2607,13 +2697,13 @@
       <c r="XU2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="XV2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="XW2" s="2" t="s">
+      <c r="XV2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="XX2" s="3" t="s">
+      <c r="XW2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="XX2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="XY2" s="0" t="s">
@@ -2622,10 +2712,10 @@
       <c r="XZ2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="YA2" s="4" t="s">
+      <c r="YA2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="YB2" s="4" t="s">
+      <c r="YB2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="YC2" s="0" t="s">
@@ -2634,7 +2724,7 @@
       <c r="YD2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="YE2" s="5" t="s">
+      <c r="YE2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="YF2" s="0" t="n">
@@ -2649,8 +2739,8 @@
       <c r="YI2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="YJ2" s="6" t="s">
-        <v>40</v>
+      <c r="YJ2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="YK2" s="0" t="n">
         <v>1</v>
@@ -2664,7 +2754,7 @@
       <c r="YN2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="YO2" s="7" t="s">
+      <c r="YO2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="YP2" s="0" t="s">
@@ -2691,13 +2781,13 @@
       <c r="YW2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="YX2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="YY2" s="2" t="s">
+      <c r="YX2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="YZ2" s="3" t="s">
+      <c r="YY2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="YZ2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="ZA2" s="0" t="s">
@@ -2706,10 +2796,10 @@
       <c r="ZB2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="ZC2" s="4" t="s">
+      <c r="ZC2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="ZD2" s="4" t="s">
+      <c r="ZD2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="ZE2" s="0" t="s">
@@ -2718,7 +2808,7 @@
       <c r="ZF2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ZG2" s="5" t="s">
+      <c r="ZG2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="ZH2" s="0" t="n">
@@ -2733,8 +2823,8 @@
       <c r="ZK2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="ZL2" s="6" t="s">
-        <v>40</v>
+      <c r="ZL2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="ZM2" s="0" t="n">
         <v>1</v>
@@ -2748,7 +2838,7 @@
       <c r="ZP2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="ZQ2" s="7" t="s">
+      <c r="ZQ2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="ZR2" s="0" t="s">
@@ -2775,13 +2865,13 @@
       <c r="ZY2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ZZ2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AAA2" s="2" t="s">
+      <c r="ZZ2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AAB2" s="3" t="s">
+      <c r="AAA2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AAB2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AAC2" s="0" t="s">
@@ -2790,10 +2880,10 @@
       <c r="AAD2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AAE2" s="4" t="s">
+      <c r="AAE2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AAF2" s="4" t="s">
+      <c r="AAF2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AAG2" s="0" t="s">
@@ -2802,7 +2892,7 @@
       <c r="AAH2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AAI2" s="5" t="s">
+      <c r="AAI2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AAJ2" s="0" t="n">
@@ -2817,8 +2907,8 @@
       <c r="AAM2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AAN2" s="6" t="s">
-        <v>40</v>
+      <c r="AAN2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AAO2" s="0" t="n">
         <v>1</v>
@@ -2832,7 +2922,7 @@
       <c r="AAR2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AAS2" s="7" t="s">
+      <c r="AAS2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AAT2" s="0" t="s">
@@ -2859,13 +2949,13 @@
       <c r="ABA2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ABB2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="ABC2" s="2" t="s">
+      <c r="ABB2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="ABD2" s="3" t="s">
+      <c r="ABC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="ABD2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="ABE2" s="0" t="s">
@@ -2874,10 +2964,10 @@
       <c r="ABF2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="ABG2" s="4" t="s">
+      <c r="ABG2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="ABH2" s="4" t="s">
+      <c r="ABH2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="ABI2" s="0" t="s">
@@ -2886,7 +2976,7 @@
       <c r="ABJ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ABK2" s="5" t="s">
+      <c r="ABK2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="ABL2" s="0" t="n">
@@ -2901,8 +2991,8 @@
       <c r="ABO2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="ABP2" s="6" t="s">
-        <v>40</v>
+      <c r="ABP2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="ABQ2" s="0" t="n">
         <v>1</v>
@@ -2916,7 +3006,7 @@
       <c r="ABT2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="ABU2" s="7" t="s">
+      <c r="ABU2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="ABV2" s="0" t="s">
@@ -2943,13 +3033,13 @@
       <c r="ACC2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ACD2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="ACE2" s="2" t="s">
+      <c r="ACD2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="ACF2" s="3" t="s">
+      <c r="ACE2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="ACF2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="ACG2" s="0" t="s">
@@ -2958,10 +3048,10 @@
       <c r="ACH2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="ACI2" s="4" t="s">
+      <c r="ACI2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="ACJ2" s="4" t="s">
+      <c r="ACJ2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="ACK2" s="0" t="s">
@@ -2970,7 +3060,7 @@
       <c r="ACL2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ACM2" s="5" t="s">
+      <c r="ACM2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="ACN2" s="0" t="n">
@@ -2985,8 +3075,8 @@
       <c r="ACQ2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="ACR2" s="6" t="s">
-        <v>40</v>
+      <c r="ACR2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="ACS2" s="0" t="n">
         <v>1</v>
@@ -3000,7 +3090,7 @@
       <c r="ACV2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="ACW2" s="7" t="s">
+      <c r="ACW2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="ACX2" s="0" t="s">
@@ -3027,13 +3117,13 @@
       <c r="ADE2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ADF2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="ADG2" s="2" t="s">
+      <c r="ADF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="ADH2" s="3" t="s">
+      <c r="ADG2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="ADH2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="ADI2" s="0" t="s">
@@ -3042,10 +3132,10 @@
       <c r="ADJ2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="ADK2" s="4" t="s">
+      <c r="ADK2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="ADL2" s="4" t="s">
+      <c r="ADL2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="ADM2" s="0" t="s">
@@ -3054,7 +3144,7 @@
       <c r="ADN2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ADO2" s="5" t="s">
+      <c r="ADO2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="ADP2" s="0" t="n">
@@ -3069,8 +3159,8 @@
       <c r="ADS2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="ADT2" s="6" t="s">
-        <v>40</v>
+      <c r="ADT2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="ADU2" s="0" t="n">
         <v>1</v>
@@ -3084,7 +3174,7 @@
       <c r="ADX2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="ADY2" s="7" t="s">
+      <c r="ADY2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="ADZ2" s="0" t="s">
@@ -3111,13 +3201,13 @@
       <c r="AEG2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AEH2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AEI2" s="2" t="s">
+      <c r="AEH2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AEJ2" s="3" t="s">
+      <c r="AEI2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AEJ2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AEK2" s="0" t="s">
@@ -3126,10 +3216,10 @@
       <c r="AEL2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AEM2" s="4" t="s">
+      <c r="AEM2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AEN2" s="4" t="s">
+      <c r="AEN2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AEO2" s="0" t="s">
@@ -3138,7 +3228,7 @@
       <c r="AEP2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AEQ2" s="5" t="s">
+      <c r="AEQ2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AER2" s="0" t="n">
@@ -3153,8 +3243,8 @@
       <c r="AEU2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AEV2" s="6" t="s">
-        <v>40</v>
+      <c r="AEV2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AEW2" s="0" t="n">
         <v>1</v>
@@ -3168,7 +3258,7 @@
       <c r="AEZ2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AFA2" s="7" t="s">
+      <c r="AFA2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AFB2" s="0" t="s">
@@ -3195,13 +3285,13 @@
       <c r="AFI2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AFJ2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AFK2" s="2" t="s">
+      <c r="AFJ2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AFL2" s="3" t="s">
+      <c r="AFK2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AFL2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AFM2" s="0" t="s">
@@ -3210,10 +3300,10 @@
       <c r="AFN2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AFO2" s="4" t="s">
+      <c r="AFO2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AFP2" s="4" t="s">
+      <c r="AFP2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AFQ2" s="0" t="s">
@@ -3222,7 +3312,7 @@
       <c r="AFR2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AFS2" s="5" t="s">
+      <c r="AFS2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AFT2" s="0" t="n">
@@ -3237,8 +3327,8 @@
       <c r="AFW2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AFX2" s="6" t="s">
-        <v>40</v>
+      <c r="AFX2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AFY2" s="0" t="n">
         <v>1</v>
@@ -3252,7 +3342,7 @@
       <c r="AGB2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AGC2" s="7" t="s">
+      <c r="AGC2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AGD2" s="0" t="s">
@@ -3279,13 +3369,13 @@
       <c r="AGK2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AGL2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AGM2" s="2" t="s">
+      <c r="AGL2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AGN2" s="3" t="s">
+      <c r="AGM2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AGN2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AGO2" s="0" t="s">
@@ -3294,10 +3384,10 @@
       <c r="AGP2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AGQ2" s="4" t="s">
+      <c r="AGQ2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AGR2" s="4" t="s">
+      <c r="AGR2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AGS2" s="0" t="s">
@@ -3306,7 +3396,7 @@
       <c r="AGT2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AGU2" s="5" t="s">
+      <c r="AGU2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AGV2" s="0" t="n">
@@ -3321,8 +3411,8 @@
       <c r="AGY2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AGZ2" s="6" t="s">
-        <v>40</v>
+      <c r="AGZ2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AHA2" s="0" t="n">
         <v>1</v>
@@ -3336,7 +3426,7 @@
       <c r="AHD2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AHE2" s="7" t="s">
+      <c r="AHE2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AHF2" s="0" t="s">
@@ -3363,13 +3453,13 @@
       <c r="AHM2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AHN2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AHO2" s="2" t="s">
+      <c r="AHN2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AHP2" s="3" t="s">
+      <c r="AHO2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AHP2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AHQ2" s="0" t="s">
@@ -3378,10 +3468,10 @@
       <c r="AHR2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AHS2" s="4" t="s">
+      <c r="AHS2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AHT2" s="4" t="s">
+      <c r="AHT2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AHU2" s="0" t="s">
@@ -3390,7 +3480,7 @@
       <c r="AHV2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AHW2" s="5" t="s">
+      <c r="AHW2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AHX2" s="0" t="n">
@@ -3405,8 +3495,8 @@
       <c r="AIA2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AIB2" s="6" t="s">
-        <v>40</v>
+      <c r="AIB2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AIC2" s="0" t="n">
         <v>1</v>
@@ -3420,7 +3510,7 @@
       <c r="AIF2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AIG2" s="7" t="s">
+      <c r="AIG2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AIH2" s="0" t="s">
@@ -3447,13 +3537,13 @@
       <c r="AIO2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AIP2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AIQ2" s="2" t="s">
+      <c r="AIP2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AIR2" s="3" t="s">
+      <c r="AIQ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AIR2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AIS2" s="0" t="s">
@@ -3462,10 +3552,10 @@
       <c r="AIT2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AIU2" s="4" t="s">
+      <c r="AIU2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AIV2" s="4" t="s">
+      <c r="AIV2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AIW2" s="0" t="s">
@@ -3474,7 +3564,7 @@
       <c r="AIX2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AIY2" s="5" t="s">
+      <c r="AIY2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AIZ2" s="0" t="n">
@@ -3489,8 +3579,8 @@
       <c r="AJC2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AJD2" s="6" t="s">
-        <v>40</v>
+      <c r="AJD2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AJE2" s="0" t="n">
         <v>1</v>
@@ -3504,7 +3594,7 @@
       <c r="AJH2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AJI2" s="7" t="s">
+      <c r="AJI2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AJJ2" s="0" t="s">
@@ -3531,13 +3621,13 @@
       <c r="AJQ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AJR2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJS2" s="2" t="s">
+      <c r="AJR2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AJT2" s="3" t="s">
+      <c r="AJS2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJT2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AJU2" s="0" t="s">
@@ -3546,10 +3636,10 @@
       <c r="AJV2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AJW2" s="4" t="s">
+      <c r="AJW2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJX2" s="4" t="s">
+      <c r="AJX2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AJY2" s="0" t="s">
@@ -3558,7 +3648,7 @@
       <c r="AJZ2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AKA2" s="5" t="s">
+      <c r="AKA2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AKB2" s="0" t="n">
@@ -3573,8 +3663,8 @@
       <c r="AKE2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AKF2" s="6" t="s">
-        <v>40</v>
+      <c r="AKF2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="AKG2" s="0" t="n">
         <v>1</v>
@@ -3588,7 +3678,7 @@
       <c r="AKJ2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AKK2" s="7" t="s">
+      <c r="AKK2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AKL2" s="0" t="s">
@@ -3615,13 +3705,13 @@
       <c r="AKS2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AKT2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AKU2" s="2" t="s">
+      <c r="AKT2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AKV2" s="3" t="s">
+      <c r="AKU2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AKV2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AKW2" s="0" t="s">
@@ -3630,10 +3720,10 @@
       <c r="AKX2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AKY2" s="4" t="s">
+      <c r="AKY2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AKZ2" s="4" t="s">
+      <c r="AKZ2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="ALA2" s="0" t="s">
@@ -3642,7 +3732,7 @@
       <c r="ALB2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ALC2" s="5" t="s">
+      <c r="ALC2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="ALD2" s="0" t="n">
@@ -3657,8 +3747,8 @@
       <c r="ALG2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="ALH2" s="6" t="s">
-        <v>40</v>
+      <c r="ALH2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="ALI2" s="0" t="n">
         <v>1</v>
@@ -3672,7 +3762,7 @@
       <c r="ALL2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="ALM2" s="7" t="s">
+      <c r="ALM2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="ALN2" s="0" t="s">
@@ -3699,13 +3789,13 @@
       <c r="ALU2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="ALV2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="ALW2" s="2" t="s">
+      <c r="ALV2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="ALX2" s="3" t="s">
+      <c r="ALW2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="ALX2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="ALY2" s="0" t="s">
@@ -3714,10 +3804,10 @@
       <c r="ALZ2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AMA2" s="4" t="s">
+      <c r="AMA2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AMB2" s="4" t="s">
+      <c r="AMB2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AMC2" s="0" t="s">
@@ -3726,7 +3816,7 @@
       <c r="AMD2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AME2" s="5" t="s">
+      <c r="AME2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AMF2" s="0" t="n">
@@ -3741,8 +3831,8 @@
       <c r="AMI2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AMJ2" s="6" t="s">
-        <v>40</v>
+      <c r="AMJ2" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,25 +3840,25 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>36</v>
@@ -3776,14 +3866,14 @@
       <c r="J3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>1994</v>
@@ -3791,23 +3881,23 @@
       <c r="O3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>55</v>
+      <c r="P3" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>19</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>2024</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="V3" s="0" t="s">
         <v>28</v>
@@ -3836,12 +3926,12 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -3850,11 +3940,11 @@
       <c r="F4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>60</v>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>36</v>
@@ -3862,14 +3952,14 @@
       <c r="J4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1996</v>
@@ -3877,14 +3967,14 @@
       <c r="O4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>62</v>
+      <c r="P4" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>11</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>2026</v>
@@ -3892,8 +3982,8 @@
       <c r="T4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>64</v>
+      <c r="U4" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>28</v>
@@ -3917,30 +4007,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>36</v>
@@ -3948,14 +4038,14 @@
       <c r="J5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1994</v>
@@ -3963,23 +4053,23 @@
       <c r="O5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>68</v>
+      <c r="P5" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>2026</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>28</v>
@@ -4003,30 +4093,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>36</v>
@@ -4034,14 +4124,14 @@
       <c r="J6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>1993</v>
@@ -4049,23 +4139,23 @@
       <c r="O6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>73</v>
+      <c r="P6" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>25</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>2026</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>28</v>
@@ -4089,17 +4179,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
@@ -4108,11 +4198,11 @@
       <c r="F7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>77</v>
+      <c r="G7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>36</v>
@@ -4120,14 +4210,14 @@
       <c r="J7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>1997</v>
@@ -4135,14 +4225,14 @@
       <c r="O7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>78</v>
+      <c r="P7" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>15</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>2025</v>
@@ -4150,8 +4240,8 @@
       <c r="T7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>79</v>
+      <c r="U7" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>28</v>
@@ -4175,17 +4265,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -4194,11 +4284,11 @@
       <c r="F8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>81</v>
+      <c r="G8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>36</v>
@@ -4206,14 +4296,14 @@
       <c r="J8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>1992</v>
@@ -4221,8 +4311,8 @@
       <c r="O8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>82</v>
+      <c r="P8" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>3</v>
@@ -4236,8 +4326,8 @@
       <c r="T8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>83</v>
+      <c r="U8" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>28</v>
@@ -4261,30 +4351,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>36</v>
@@ -4292,11 +4382,11 @@
       <c r="J9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>38</v>
@@ -4307,23 +4397,23 @@
       <c r="O9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>86</v>
+      <c r="P9" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>2025</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>28</v>
@@ -4347,30 +4437,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>36</v>
@@ -4378,14 +4468,14 @@
       <c r="J10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>1987</v>
@@ -4393,8 +4483,8 @@
       <c r="O10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>91</v>
+      <c r="P10" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>22</v>
@@ -4406,10 +4496,10 @@
         <v>2025</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>92</v>
+        <v>61</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>28</v>
@@ -4433,30 +4523,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>36</v>
@@ -4464,14 +4554,14 @@
       <c r="J11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>1997</v>
@@ -4479,23 +4569,23 @@
       <c r="O11" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>94</v>
+      <c r="P11" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>11</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>2026</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>28</v>
@@ -4519,30 +4609,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>36</v>
@@ -4550,14 +4640,14 @@
       <c r="J12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1995</v>
@@ -4565,23 +4655,23 @@
       <c r="O12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>98</v>
+      <c r="P12" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>13</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>2026</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>28</v>
@@ -4605,17 +4695,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -4624,11 +4714,11 @@
       <c r="F13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>102</v>
+      <c r="G13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>36</v>
@@ -4636,14 +4726,14 @@
       <c r="J13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>1993</v>
@@ -4651,14 +4741,14 @@
       <c r="O13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>104</v>
+      <c r="P13" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>26</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>2025</v>
@@ -4666,8 +4756,8 @@
       <c r="T13" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>105</v>
+      <c r="U13" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>28</v>
@@ -4691,17 +4781,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="0" t="s">
@@ -4710,11 +4800,11 @@
       <c r="F14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>107</v>
+      <c r="G14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>36</v>
@@ -4722,14 +4812,14 @@
       <c r="J14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>1989</v>
@@ -4737,8 +4827,8 @@
       <c r="O14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>108</v>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>21</v>
@@ -4752,8 +4842,8 @@
       <c r="T14" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="U14" s="6" t="s">
-        <v>109</v>
+      <c r="U14" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>28</v>
